--- a/ONCHO/OEM/Congo/2022 jul/cg_oncho_oem_1_site_202207.xlsx
+++ b/ONCHO/OEM/Congo/2022 jul/cg_oncho_oem_1_site_202207.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>list_name</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>region_list</t>
@@ -1499,7 +1496,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C9"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1783,7 +1780,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="$A26:$XFD43"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1802,61 +1799,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="E1" s="15"/>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:5">
       <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="16"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:5">
       <c r="A3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="16"/>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="16"/>
@@ -1870,286 +1867,286 @@
     </row>
     <row r="7" s="8" customFormat="1" spans="1:5">
       <c r="A7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="C7" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="16"/>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="16"/>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="16"/>
     </row>
     <row r="10" s="8" customFormat="1" spans="1:5">
       <c r="A10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="16"/>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="16"/>
     </row>
     <row r="13" s="8" customFormat="1" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="16"/>
     </row>
     <row r="14" s="8" customFormat="1" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="16"/>
     </row>
     <row r="15" s="8" customFormat="1" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="16"/>
     </row>
     <row r="16" s="8" customFormat="1" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="16"/>
     </row>
     <row r="17" s="8" customFormat="1" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="16"/>
     </row>
     <row r="18" s="8" customFormat="1" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="16"/>
     </row>
     <row r="19" s="8" customFormat="1" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="16"/>
     </row>
     <row r="20" s="8" customFormat="1" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="16"/>
     </row>
     <row r="21" s="8" customFormat="1" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="16"/>
     </row>
     <row r="22" s="8" customFormat="1" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="16"/>
     </row>
     <row r="23" s="8" customFormat="1" spans="1:5">
       <c r="A23" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="16"/>
     </row>
     <row r="24" s="8" customFormat="1" spans="1:5">
       <c r="A24" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="16"/>
     </row>
     <row r="25" s="8" customFormat="1" spans="1:5">
       <c r="A25" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="16"/>
     </row>
@@ -2179,24 +2176,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2225,16 +2222,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2243,14 +2240,14 @@
         <v>Congo</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2"/>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2259,14 +2256,14 @@
         <v>Congo</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2275,14 +2272,14 @@
         <v>Congo</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4"/>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2291,14 +2288,14 @@
         <v>Congo</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2307,10 +2304,10 @@
         <v>Congo</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2319,10 +2316,10 @@
         <v>Congo</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2331,10 +2328,10 @@
         <v>Congo</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2343,10 +2340,10 @@
         <v>Congo</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2355,10 +2352,10 @@
         <v>Congo</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" ht="42.75" spans="1:3">
@@ -2367,10 +2364,10 @@
         <v>Congo</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2379,10 +2376,10 @@
         <v>Congo</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2391,10 +2388,10 @@
         <v>Congo</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2403,10 +2400,10 @@
         <v>Congo</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2415,10 +2412,10 @@
         <v>Congo</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2427,10 +2424,10 @@
         <v>Congo</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2439,10 +2436,10 @@
         <v>Congo</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2451,10 +2448,10 @@
         <v>Congo</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2463,10 +2460,10 @@
         <v>Congo</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2475,10 +2472,10 @@
         <v>Congo</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
